--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2749465521658407</v>
+        <v>0.2736306026956323</v>
       </c>
       <c r="C2" t="n">
-        <v>5.400411327094604e-187</v>
+        <v>8.841778257894394e-183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,60 +476,68 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.24512889547754</v>
+        <v>0.09582708529393386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2218759523235262</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>0.002853725977050886</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2093133617904499</v>
+        <v>0.07452963438490096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08979768175849225</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.005710284833575199</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1795144111647886</v>
+        <v>0.06349561262043929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03645809159830764</v>
+        <v>1.902880146434419e-23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08463015879318674</v>
+        <v>0.04407124451264775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01917795798090795</v>
+        <v>0.01938982179007898</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -540,318 +548,338 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07760855656510857</v>
+        <v>0.03737463874638416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04664424353670638</v>
+        <v>0.002411089750431188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06476393571823651</v>
+        <v>0.02708033794144164</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09714734518808804</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.0003362887844275039</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05918884343044807</v>
+        <v>0.02700392549874032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02393099017830892</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1228655573386732</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05428709902873233</v>
+        <v>0.0199759265707039</v>
       </c>
       <c r="C10" t="n">
-        <v>1.056177981415292e-07</v>
+        <v>0.001926802030624097</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03921985197396115</v>
+        <v>0.01739871217568081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2394600353014497</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>0.004719179449270521</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01177607244686863</v>
+        <v>0.01365927025950549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7606527748278483</v>
+        <v>0.4536691204175821</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.009470968060523659</v>
+        <v>0.01338479846284851</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8043761337885331</v>
+        <v>0.8297639117696598</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00899354690644863</v>
+        <v>0.006048973680099135</v>
       </c>
       <c r="C14" t="n">
-        <v>0.542244375310988</v>
+        <v>0.6775621844495077</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005700889644226423</v>
+        <v>0.005368297369980105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8371439031992109</v>
+        <v>0.4810736686448569</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.004984937578165448</v>
+        <v>0.004793612118347279</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7944774943679008</v>
+        <v>0.3776525057274018</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004486030482359087</v>
+        <v>0.003867419921540012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8148025474928411</v>
+        <v>0.595518879437976</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003484018588990598</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7358100186274815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002258246351693952</v>
+        <v>-0.00282199650614582</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8840190491373605</v>
+        <v>0.622598976434089</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>-0.004326938926750903</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4775343233152424</v>
+      </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0005608805156216944</v>
+        <v>-0.007538774712042033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9854019664241218</v>
+        <v>0.3046785229145504</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001325395519029469</v>
+        <v>-0.01855745903368237</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8955673108689115</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.006389436667861435</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005419270395360286</v>
+        <v>-0.01899918894070655</v>
       </c>
       <c r="C23" t="n">
-        <v>0.476294689679576</v>
+        <v>0.07211045742166652</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.008455198988904612</v>
+        <v>-0.02809258948625731</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2962440233544735</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.0007659090377056832</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.008880435883865893</v>
+        <v>-0.03064373277323287</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8289326172622102</v>
+        <v>0.1320324086432831</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.009611086316133097</v>
+        <v>-0.04748605389394335</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7632848088170956</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>0.00035140370115946</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01012292006376082</v>
+        <v>-0.06054558412458902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3921489241102071</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0.0001949721271231267</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.04697475403815576</v>
+        <v>-0.0739836728642151</v>
       </c>
       <c r="C28" t="n">
-        <v>2.484680704612544e-05</v>
+        <v>0.0009432358023745086</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -862,102 +890,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.07079868324627092</v>
+        <v>-0.09411771256258332</v>
       </c>
       <c r="C29" t="n">
-        <v>1.039339581283335e-05</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Average Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.07217617223487861</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.03811609237087404</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1137568790450853</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.00184856198483446</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1620131740368168</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0358365656561714</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.2155538657913727</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.101317004735584</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.2277107120909348</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.2262703279939217</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>0.2169282067331242</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2732956530600769</v>
+        <v>0.2749483587705182</v>
       </c>
       <c r="C2" t="n">
-        <v>1.320784163749622e-220</v>
+        <v>4.73015897249451e-217</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,14 +476,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1685238586322807</v>
+        <v>0.09708719585191189</v>
       </c>
       <c r="C3" t="n">
-        <v>5.541440334074641e-05</v>
+        <v>1.87338544329906e-06</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1151472205312497</v>
+        <v>0.08686407395451247</v>
       </c>
       <c r="C4" t="n">
-        <v>1.177055970178173e-11</v>
+        <v>5.194684970228902e-08</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -512,36 +512,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09098429745214176</v>
+        <v>0.07695587875773847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01022619630966718</v>
+        <v>7.478884683328158e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0728920608593579</v>
+        <v>0.07522870246876473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001739084246028109</v>
+        <v>0.005079640954927</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05739482682815973</v>
+        <v>0.05365402946997151</v>
       </c>
       <c r="C7" t="n">
-        <v>1.321504024628584e-17</v>
+        <v>1.212276201889516e-24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05621815854903161</v>
+        <v>0.0463701991991308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003219353168929162</v>
+        <v>0.0001485895429389932</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,16 +584,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04774727568351127</v>
+        <v>0.03351110826254901</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1238323147406725</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0.01488024133240439</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,10 +606,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04587965757431003</v>
+        <v>0.02735704315266141</v>
       </c>
       <c r="C10" t="n">
-        <v>1.893092356476287e-05</v>
+        <v>0.0003418994734052873</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -616,318 +620,254 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03881267622287856</v>
+        <v>0.01901315604646954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003246967067444789</v>
+        <v>0.0007472338795528085</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03654961102437081</v>
+        <v>0.0128590909365826</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006293044485616506</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2007826950535632</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02701240328504542</v>
+        <v>0.004673451903706535</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004236733221422801</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.442761279508358</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02205328040124725</v>
+        <v>0.003487732810828601</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5221906734201467</v>
+        <v>0.7625485506113897</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01260290900091675</v>
+        <v>0.0010458582272279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2477091208457971</v>
+        <v>0.9355189164971991</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006210492676199469</v>
+        <v>-0.005720621364075499</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2745241266939678</v>
+        <v>0.1951287306449712</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005337266727846499</v>
+        <v>-0.006236660810472446</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5149309355920791</v>
+        <v>0.2187755203378255</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003949474627152609</v>
+        <v>-0.01476535868995541</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4684554200897806</v>
+        <v>0.5709467341324181</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0009469962036853519</v>
+        <v>-0.03531744883373501</v>
       </c>
       <c r="C19" t="n">
-        <v>0.946388149396622</v>
+        <v>0.08711988048978825</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01374529260807573</v>
+        <v>-0.03869169735656308</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6489702106946189</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.001216625563472975</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01466820958906263</v>
+        <v>-0.04622921331123457</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2803244360424146</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.01939092597933995</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0180922365927852</v>
+        <v>-0.05494782728775113</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4954292523616093</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.004994051288293072</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04133864470436999</v>
+        <v>-0.07110767006962243</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02874462092841643</v>
+        <v>3.122973302799789e-08</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.04702804145853617</v>
+        <v>-0.08249689186361603</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002975197152337735</v>
+        <v>1.77145491849687e-08</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05449043377305434</v>
+        <v>-0.09822623130497349</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03937056189076597</v>
+        <v>1.544223007364787e-07</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.0699216951760941</v>
+        <v>-0.1120388969060099</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009174873670528294</v>
+        <v>4.65432910713819e-09</v>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Value Unfairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.09628394053737245</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6.509710764732648e-13</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.1086436029504074</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.08096391876683498</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.1144468225722801</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.057374367010834e-07</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.1759412431746429</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.465278005563504e-10</v>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>***</t>
         </is>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,122 +458,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2749483587705182</v>
+        <v>30033135884.53937</v>
       </c>
       <c r="C2" t="n">
-        <v>4.73015897249451e-217</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8177429332714401</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09708719585191189</v>
+        <v>21379292417.79947</v>
       </c>
       <c r="C3" t="n">
-        <v>1.87338544329906e-06</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8177429332713021</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08686407395451247</v>
+        <v>21379292417.75488</v>
       </c>
       <c r="C4" t="n">
-        <v>5.194684970228902e-08</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8177429332716725</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07695587875773847</v>
+        <v>14058150361.03598</v>
       </c>
       <c r="C5" t="n">
-        <v>7.478884683328158e-07</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8177429332701782</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07522870246876473</v>
+        <v>14058150360.92287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005079640954927</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8177429332716197</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05365402946997151</v>
+        <v>14058150360.84189</v>
       </c>
       <c r="C7" t="n">
-        <v>1.212276201889516e-24</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8177429332726514</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0463701991991308</v>
+        <v>0.2120273788722157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001485895429389932</v>
+        <v>3.34375259407655e-06</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,32 +560,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03351110826254901</v>
+        <v>0.1822006656049091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01488024133240439</v>
+        <v>7.888322106370435e-14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02735704315266141</v>
+        <v>0.1000997827338777</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003418994734052873</v>
+        <v>3.975462569495424e-09</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -620,216 +596,204 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01901315604646954</v>
+        <v>0.052632619303341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007472338795528085</v>
+        <v>0.008923868875597931</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0128590909365826</v>
+        <v>0.04966769159772833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2007826950535632</v>
+        <v>0.207673844757388</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004673451903706535</v>
+        <v>0.04201455359445599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.442761279508358</v>
+        <v>0.4371174778177195</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003487732810828601</v>
+        <v>0.03923204957932434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7625485506113897</v>
+        <v>0.142158350643178</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0010458582272279</v>
+        <v>0.03881040461089295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9355189164971991</v>
+        <v>0.3064300983768022</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.005720621364075499</v>
+        <v>0.03639228223263941</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1951287306449712</v>
+        <v>0.1432481861885631</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006236660810472446</v>
+        <v>0.006337287417554258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2187755203378255</v>
+        <v>0.8548867924767751</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01476535868995541</v>
+        <v>0.001433457701796878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5709467341324181</v>
+        <v>0.9801326595036624</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03531744883373501</v>
+        <v>-0.01335846377572271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08711988048978825</v>
+        <v>0.5380640747598227</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.03869169735656308</v>
+        <v>-0.02001606709362304</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001216625563472975</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.3351132372116112</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04622921331123457</v>
+        <v>-0.02889818688167793</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01939092597933995</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7933817198045925</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05494782728775113</v>
+        <v>-0.03389752425996524</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004994051288293072</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.455203446687315</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.07110767006962243</v>
+        <v>-0.06028322739123119</v>
       </c>
       <c r="C23" t="n">
-        <v>3.122973302799789e-08</v>
+        <v>0.03926410485789001</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.08249689186361603</v>
+        <v>-0.08894628228988248</v>
       </c>
       <c r="C24" t="n">
-        <v>1.77145491849687e-08</v>
+        <v>6.289724823718723e-05</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -840,38 +804,84 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.09822623130497349</v>
+        <v>-0.1191714242024115</v>
       </c>
       <c r="C25" t="n">
-        <v>1.544223007364787e-07</v>
+        <v>0.005056469687867057</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1120388969060099</v>
+        <v>-0.1258226360055504</v>
       </c>
       <c r="C26" t="n">
-        <v>4.65432910713819e-09</v>
+        <v>0.001861428148076221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Average Long Tail Items</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1347022382190834</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0001473545497570769</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-65470578663.18451</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8177429332716423</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-65470578663.20154</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8177429332715956</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30033135884.53937</v>
+        <v>22909835553.55997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8177429332714401</v>
+        <v>0.8410486968516041</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21379292417.79947</v>
+        <v>15112748645.51682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8177429332713021</v>
+        <v>0.8410486968511551</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21379292417.75488</v>
+        <v>15112748645.42563</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8177429332716725</v>
+        <v>0.8410486968520983</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14058150361.03598</v>
+        <v>10011144896.09024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8177429332701782</v>
+        <v>0.8410486968500521</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14058150360.92287</v>
+        <v>10011144895.97963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8177429332716197</v>
+        <v>0.8410486968517856</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -532,24 +532,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14058150360.84189</v>
+        <v>10011144895.89975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8177429332726514</v>
+        <v>0.8410486968530371</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2120273788722157</v>
+        <v>0.1742989409749078</v>
       </c>
       <c r="C8" t="n">
-        <v>3.34375259407655e-06</v>
+        <v>1.003869090837634e-12</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -560,14 +560,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1822006656049091</v>
+        <v>0.1481870651057092</v>
       </c>
       <c r="C9" t="n">
-        <v>7.888322106370435e-14</v>
+        <v>0.0004979524107698549</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -578,14 +578,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1000997827338777</v>
+        <v>0.1214964636692135</v>
       </c>
       <c r="C10" t="n">
-        <v>3.975462569495424e-09</v>
+        <v>0.0005121635627244119</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -596,46 +596,46 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.052632619303341</v>
+        <v>0.0951477900272623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008923868875597931</v>
+        <v>2.499384060065192e-08</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04966769159772833</v>
+        <v>0.03435650632382325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.207673844757388</v>
+        <v>0.3140226797719834</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04201455359445599</v>
+        <v>0.03377075727962141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4371174778177195</v>
+        <v>0.08568871654013543</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
@@ -646,108 +646,108 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03923204957932434</v>
+        <v>0.03245356276696271</v>
       </c>
       <c r="C14" t="n">
-        <v>0.142158350643178</v>
+        <v>0.2270117457401776</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03881040461089295</v>
+        <v>0.02793069036078313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3064300983768022</v>
+        <v>0.2629215067011743</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03639228223263941</v>
+        <v>0.01176513185352987</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1432481861885631</v>
+        <v>0.5391382217297088</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006337287417554258</v>
+        <v>0.000319948179116885</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8548867924767751</v>
+        <v>0.9881507435086962</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001433457701796878</v>
+        <v>-0.01110735596459379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9801326595036624</v>
+        <v>0.9203299579354611</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01335846377572271</v>
+        <v>-0.01124135089575162</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5380640747598227</v>
+        <v>0.7234139665745269</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02001606709362304</v>
+        <v>-0.01746957926473755</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3351132372116112</v>
+        <v>0.7374938257291236</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02889818688167793</v>
+        <v>-0.02424584546167687</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7933817198045925</v>
+        <v>0.6737625686161068</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
@@ -758,64 +758,60 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03389752425996524</v>
+        <v>-0.0409259823222289</v>
       </c>
       <c r="C22" t="n">
-        <v>0.455203446687315</v>
+        <v>0.3706171363519382</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.06028322739123119</v>
+        <v>-0.04123051546637763</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03926410485789001</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1954885690573872</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.08894628228988248</v>
+        <v>-0.08084828092860966</v>
       </c>
       <c r="C24" t="n">
-        <v>6.289724823718723e-05</v>
+        <v>0.005276024249215185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1191714242024115</v>
+        <v>-0.08526875082063456</v>
       </c>
       <c r="C25" t="n">
-        <v>0.005056469687867057</v>
+        <v>0.0001381117462204901</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
@@ -826,10 +822,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1258226360055504</v>
+        <v>-0.1319423702337562</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001861428148076221</v>
+        <v>0.001193453864580938</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -840,48 +836,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1347022382190834</v>
+        <v>-48033729094.98279</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001473545497570769</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8410486968517382</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-65470578663.18451</v>
+        <v>-48033729095</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8177429332716423</v>
+        <v>0.8410486968516822</v>
       </c>
       <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-65470578663.20154</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8177429332715956</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_mrr@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,408 +458,370 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22909835553.55997</v>
+        <v>0.3547407116956688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8410486968516041</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>1.236984363532901e-05</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15112748645.51682</v>
+        <v>0.2932696401898344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8410486968511551</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>2.595692441021966e-35</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15112748645.42563</v>
+        <v>0.2063879120483886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8410486968520983</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>1.798757223443471e-07</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10011144896.09024</v>
+        <v>0.1632472962339986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8410486968500521</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.01207238457446651</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10011144895.97963</v>
+        <v>0.1411231863864772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8410486968517856</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>0.01522951666552033</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10011144895.89975</v>
+        <v>0.1205926320702782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8410486968530371</v>
+        <v>0.2832360831930996</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1742989409749078</v>
+        <v>0.1177956440114859</v>
       </c>
       <c r="C8" t="n">
-        <v>1.003869090837634e-12</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.167665566885749</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1481870651057092</v>
+        <v>0.07809716408057717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004979524107698549</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7035333941749276</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1214964636692135</v>
+        <v>0.06589512118528976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005121635627244119</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3179911407644141</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0951477900272623</v>
+        <v>0.02089707647398478</v>
       </c>
       <c r="C11" t="n">
-        <v>2.499384060065192e-08</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8354449775461874</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03435650632382325</v>
+        <v>0.01645777348609134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3140226797719834</v>
+        <v>0.6429081090587203</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03377075727962141</v>
+        <v>0.009281300651413645</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08568871654013543</v>
+        <v>0.8312547012708399</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03245356276696271</v>
+        <v>0.00272624282123894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2270117457401776</v>
+        <v>0.938243878829556</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02793069036078313</v>
+        <v>-0.03136351450861247</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2629215067011743</v>
+        <v>0.7677095353197548</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01176513185352987</v>
+        <v>-0.03166771477427802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5391382217297088</v>
+        <v>0.454323049275941</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.000319948179116885</v>
+        <v>-0.04067716620473375</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9881507435086962</v>
+        <v>0.4544045792944696</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01110735596459379</v>
+        <v>-0.04158422638444317</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9203299579354611</v>
+        <v>0.6733519824290157</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01124135089575162</v>
+        <v>-0.06434405659400869</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7234139665745269</v>
+        <v>0.3056009973794311</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01746957926473755</v>
+        <v>-0.09816705430123837</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7374938257291236</v>
+        <v>0.2080257956790076</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02424584546167687</v>
+        <v>-0.1119788491544103</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6737625686161068</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.006832559449293652</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0409259823222289</v>
+        <v>-0.1131229988428124</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3706171363519382</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.01423204996242506</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04123051546637763</v>
+        <v>-0.1224591425739509</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1954885690573872</v>
+        <v>0.1027044093583339</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.08084828092860966</v>
+        <v>-0.1835176216127773</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005276024249215185</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1583459594767358</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.08526875082063456</v>
+        <v>-0.2251018479972224</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001381117462204901</v>
+        <v>0.008491404274797786</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.1319423702337562</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001193453864580938</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>**</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-48033729094.98279</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8410486968517382</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-48033729095</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8410486968516822</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
